--- a/dict.xlsx
+++ b/dict.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,8 +424,53 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{1: 1, 2: 2, 3: 3, 4: 4, 5: 5}</t>
+          <t>Key</t>
         </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
